--- a/Traveloka_DataAutomation_Portal_Malindoariwayssdnbhd/Data/Config.xlsx
+++ b/Traveloka_DataAutomation_Portal_Malindoariwayssdnbhd/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kalyana\dataautomation_personal\Traveloka_DataAutomation_Portal_Malindoid\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kalyana\dataautomation_personal\Traveloka_DataAutomation_Portal_Malindoariwayssdnbhd\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4B4E2C-6D96-48E3-962F-2C99F277D48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBF9593-0BF9-4CC4-82D7-9F4045D7507E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="3360" windowWidth="21588" windowHeight="10620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="336" yWindow="336" windowWidth="19308" windowHeight="8640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -248,9 +248,6 @@
     <t>CaptchaProcess</t>
   </si>
   <si>
-    <t>Traveloka_CaptchaHandler_Dev</t>
-  </si>
-  <si>
     <t>[Dev] RPA_Moon_PathCaptchaHandler</t>
   </si>
   <si>
@@ -258,6 +255,9 @@
   </si>
   <si>
     <t>[Dev] RPA_Moon_SheetIdConfig_Transport</t>
+  </si>
+  <si>
+    <t>Traveloka_CaptchaHandler</t>
   </si>
 </sst>
 </file>
@@ -338,9 +338,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -378,7 +378,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -484,7 +484,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -626,7 +626,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -636,7 +636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -744,7 +744,7 @@
         <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.3" customHeight="1"/>
@@ -2909,7 +2909,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -2962,7 +2962,7 @@
         <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.3" customHeight="1">
@@ -3039,10 +3039,10 @@
     </row>
     <row r="12" spans="1:26" ht="14.3" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.3" customHeight="1"/>
